--- a/va_facility_data_2025-02-20/Hot Springs VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Hot%20Springs%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hot Springs VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Hot%20Springs%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Safe Care" sheetId="1" r:id="Rcc285f523f894c5e83e8e1383a8f7dad"/>
-    <x:sheet name="Wait Times" sheetId="2" r:id="Rb793610d4e824be8816951a5ca98e20e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="3" r:id="Rab7bcfd751f7499f8d8789bba41571b9"/>
-    <x:sheet name="Outpatient Score" sheetId="4" r:id="Reaa3abff645f49f1ad550ffd74a68486"/>
+    <x:sheet name="Safe Care" sheetId="1" r:id="R641a45ab489e4c4a9f4e4a49ba072a7e"/>
+    <x:sheet name="Wait Times" sheetId="2" r:id="R678889d437f64b4193bf835b093bf494"/>
+    <x:sheet name="Satisfaction with Care" sheetId="3" r:id="R4535a2254ee3474197d269102ad8095c"/>
+    <x:sheet name="Outpatient Score" sheetId="4" r:id="R7a9acdf90b59439683b9ccda2d3e2ea1"/>
   </x:sheets>
 </x:workbook>
 </file>
